--- a/Python/required files/JETA Packing list customer info.xlsx
+++ b/Python/required files/JETA Packing list customer info.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (JETA)\JETA Team Folder\JETA\02 Research &amp; Development\Jasper\Auto packing lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Program\dist\JETA_Packing_list_creator\required files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5A0D9-BF4C-4569-AEB3-B62AF71671B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E976A75-99F8-4F1B-A644-D425D0F5F09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="2775" windowWidth="26700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer info" sheetId="2" r:id="rId1"/>
+    <sheet name="customer info" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>postal code</t>
-  </si>
-  <si>
-    <t>tax nr</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>bionobis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>7 Rue Nicolas COPERNIC</t>
   </si>
@@ -45,30 +33,15 @@
     <t>Guyancourt, 78280</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>turku</t>
-  </si>
-  <si>
     <t>UMC Utrecht</t>
   </si>
   <si>
     <t>ZOTAL</t>
   </si>
   <si>
-    <t>VH Bio</t>
-  </si>
-  <si>
     <t>NSW Health Pathology</t>
   </si>
   <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>dPCR</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSSHP Logistiikkakeskus Biolinja 25 </t>
   </si>
   <si>
@@ -81,20 +54,76 @@
     <t>VAT: FR95414655175</t>
   </si>
   <si>
-    <t>Heidelberglaan 100</t>
-  </si>
-  <si>
     <t>3584CX Utrecht</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>TAX_NR</t>
+  </si>
+  <si>
+    <t>Moleculaire Pathologie H04.312 UMC Utrecht Heidelberglaan 100</t>
+  </si>
+  <si>
+    <t>4 Habarzel Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tel-Aviv 69710 ISRAEL </t>
+  </si>
+  <si>
+    <t>V.H. Bio Limited</t>
+  </si>
+  <si>
+    <t>Unit 11B Station Approach Team Valley Trading Estate</t>
+  </si>
+  <si>
+    <t>NE11 0ZF Gateshead, UK</t>
+  </si>
+  <si>
+    <t>Camperdown, NSW 2050</t>
+  </si>
+  <si>
+    <t>Royal Prince Alfred Hospital Haematology, Level 5, Building 77 Missenden Rd</t>
+  </si>
+  <si>
+    <t>Erasmus MC Rotterdam</t>
+  </si>
+  <si>
+    <t>Goederenontvangst Westzeedijk Westzeedijk 353</t>
+  </si>
+  <si>
+    <t>3015 AA Rotterdam</t>
+  </si>
+  <si>
+    <t>Bionobis</t>
+  </si>
+  <si>
+    <t>Turku</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,14 +145,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,97 +446,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C28768D-7F88-437D-8030-6A26EF2FA518}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
